--- a/raw_data/local_continuum/Atlanta.xlsx
+++ b/raw_data/local_continuum/Atlanta.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Dropbox/Documents_local/Hopkins/PhD/RA work_summer 2020/EHE (Todd)/Suppression data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DC112-5213-A040-A392-60E589F82B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="28760" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="456" windowWidth="28764" windowHeight="15936"/>
   </bookViews>
   <sheets>
     <sheet name="Stratified_Data" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,22 +532,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -598,7 +597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -648,7 +647,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -677,7 +676,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -700,7 +699,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -725,7 +724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -750,7 +749,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -773,7 +772,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -798,7 +797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -834,7 +833,7 @@
         <v>239.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -868,7 +867,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -900,7 +899,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -933,7 +932,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -966,7 +965,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
@@ -986,7 +985,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1091,12 +1090,12 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1104,42 +1103,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
@@ -1151,34 +1150,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1186,56 +1185,56 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" xr:uid="{9F37EB07-0D3F-5041-86DD-A57FC65F961F}"/>
-    <hyperlink ref="A12" r:id="rId2" xr:uid="{E381A37E-47F3-FD42-8D74-EAFD24171DEB}"/>
-    <hyperlink ref="A14" r:id="rId3" location="District%20Tables" display="https://dph.georgia.gov/hiv-care-continuum-georgia-district - District%20Tables" xr:uid="{568DCA15-0033-8549-866B-E634DB29B73F}"/>
+    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A12" r:id="rId2"/>
+    <hyperlink ref="A14" r:id="rId3" location="District%20Tables" display="https://dph.georgia.gov/hiv-care-continuum-georgia-district - District%20Tables"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
